--- a/input_test/HMP1489_r1_t0.xlsx
+++ b/input_test/HMP1489_r1_t0.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="993" firstSheet="0" activeTab="12"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="990" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" state="visible" r:id="rId2"/>
@@ -516,8 +516,8 @@
   </sheetPr>
   <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B8" activeCellId="1" sqref="C4 B8"/>
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B7" activeCellId="0" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -570,7 +570,7 @@
         <v>8</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>10000</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -653,7 +653,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -748,7 +748,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -929,7 +929,7 @@
   <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1207,15 +1207,15 @@
   </sheetPr>
   <dimension ref="A1:K11"/>
   <sheetViews>
-    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C4" activeCellId="0" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col collapsed="false" hidden="false" max="1" min="1" style="0" width="8.57085020242915"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="40.919028340081"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.1538461538462"/>
+    <col collapsed="false" hidden="false" max="2" min="2" style="0" width="41.5627530364373"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="0" width="51.9514170040486"/>
     <col collapsed="false" hidden="false" max="1025" min="4" style="0" width="8.57085020242915"/>
   </cols>
   <sheetData>
@@ -1479,7 +1479,7 @@
   <dimension ref="A1:R11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2122,7 +2122,7 @@
   <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2455,7 +2455,7 @@
   <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2636,7 +2636,7 @@
   <dimension ref="A2:A12"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2718,7 +2718,7 @@
   <dimension ref="A2:A19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2835,7 +2835,7 @@
   <dimension ref="A2:A19"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2952,7 +2952,7 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="1" sqref="C4 A2"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3100,7 +3100,7 @@
   <dimension ref="A1:C18"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="C4 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/input_test/HMP1489_r1_t0.xlsx
+++ b/input_test/HMP1489_r1_t0.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\psaa_\Documents\Publications\Conceptualized_GRASP with constraints\Review1\GRASP-mixed_promiscuous\input_test\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nicow/Documents/GRASP/input_test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{389CACD2-648D-489A-BD61-59A260A0D0C3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15C3D3CA-5B74-E248-8036-02B79E51F0F4}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="11508" windowHeight="8796" tabRatio="993" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="11500" windowHeight="8800" tabRatio="993" firstSheet="1" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="general" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="284" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="123">
   <si>
     <t>General Reaction and Sampling Platform (GRASP)</t>
   </si>
@@ -403,6 +403,9 @@
   </si>
   <si>
     <t>Final tolerance (in the case of ORACLE, set to 1)</t>
+  </si>
+  <si>
+    <t>Isoenzymes</t>
   </si>
 </sst>
 </file>
@@ -492,7 +495,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -515,11 +518,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -577,6 +591,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -898,20 +915,20 @@
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="68.20703125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="29.05078125" bestFit="1" customWidth="1"/>
-    <col min="3" max="1025" width="8.578125"/>
+    <col min="1" max="1" width="68.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
+    <col min="3" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A1" s="19" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="19"/>
     </row>
-    <row r="2" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>1</v>
       </c>
@@ -919,7 +936,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>115</v>
       </c>
@@ -927,7 +944,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>117</v>
       </c>
@@ -935,7 +952,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
@@ -943,7 +960,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>4</v>
       </c>
@@ -951,7 +968,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>5</v>
       </c>
@@ -959,7 +976,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>6</v>
       </c>
@@ -967,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A9" s="6" t="s">
         <v>7</v>
       </c>
@@ -975,13 +992,13 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="30" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="11" t="s">
         <v>119</v>
       </c>
       <c r="B10" s="12"/>
     </row>
-    <row r="11" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A11" s="13" t="s">
         <v>8</v>
       </c>
@@ -989,7 +1006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="15.3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A12" s="15" t="s">
         <v>9</v>
       </c>
@@ -997,13 +1014,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A13" s="13" t="s">
         <v>120</v>
       </c>
       <c r="B13" s="17"/>
     </row>
-    <row r="14" spans="1:2" ht="15" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" ht="16" x14ac:dyDescent="0.2">
       <c r="A14" s="15" t="s">
         <v>121</v>
       </c>
@@ -1028,12 +1045,12 @@
       <selection activeCellId="1" sqref="A5:XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>77</v>
       </c>
@@ -1050,7 +1067,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>35</v>
       </c>
@@ -1067,7 +1084,7 @@
         <v>0.321480483381898</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>36</v>
       </c>
@@ -1084,7 +1101,7 @@
         <v>2.6885317616526101</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
@@ -1115,12 +1132,12 @@
       <selection activeCellId="1" sqref="A5:XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>82</v>
       </c>
@@ -1134,7 +1151,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1148,7 +1165,7 @@
         <v>1.0618944594536901</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1162,7 +1179,7 @@
         <v>1.05130701397894</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1176,7 +1193,7 @@
         <v>1.0361779198626599</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1190,7 +1207,7 @@
         <v>1.2184866548106199</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1204,7 +1221,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1218,7 +1235,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1232,7 +1249,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1246,7 +1263,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1260,7 +1277,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1288,12 +1305,12 @@
       <selection activeCellId="1" sqref="A5:XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -1307,7 +1324,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -1321,7 +1338,7 @@
         <v>1.0846643630435999</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -1335,7 +1352,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1349,7 +1366,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -1363,7 +1380,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -1377,7 +1394,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -1391,7 +1408,7 @@
         <v>1.01688883066455</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -1405,7 +1422,7 @@
         <v>2.7320508075688799</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -1419,7 +1436,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -1433,7 +1450,7 @@
         <v>1.0373158733316801</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1447,7 +1464,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -1461,7 +1478,7 @@
         <v>1.0607504224416699</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -1475,7 +1492,7 @@
         <v>1.1320236014446901</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -1489,7 +1506,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -1503,7 +1520,7 @@
         <v>1.01</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -1517,7 +1534,7 @@
         <v>1.0015209345154199</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -1531,7 +1548,7 @@
         <v>1.00551006977371</v>
       </c>
     </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -1559,15 +1576,15 @@
       <selection activeCell="A5" sqref="A5:XFD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.578125"/>
-    <col min="2" max="2" width="43.3671875"/>
-    <col min="3" max="3" width="54.1015625"/>
-    <col min="4" max="1025" width="8.578125"/>
+    <col min="1" max="1" width="8.5"/>
+    <col min="2" max="2" width="43.33203125"/>
+    <col min="3" max="3" width="54.1640625"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>88</v>
       </c>
@@ -1602,7 +1619,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1625,7 +1642,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1648,7 +1665,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -1674,7 +1691,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -1694,7 +1711,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1717,7 +1734,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -1743,7 +1760,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -1757,7 +1774,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -1774,7 +1791,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -1791,7 +1808,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -1822,12 +1839,12 @@
       <selection activeCellId="1" sqref="A5:XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>10</v>
       </c>
@@ -1883,7 +1900,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -1939,7 +1956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -1995,7 +2012,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2051,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2107,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -2163,7 +2180,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2219,7 +2236,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2275,7 +2292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2331,7 +2348,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -2387,7 +2404,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -2457,12 +2474,12 @@
       <selection activeCellId="1" sqref="A5:XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2479,7 +2496,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -2496,7 +2513,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -2513,7 +2530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -2530,7 +2547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -2547,7 +2564,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -2564,7 +2581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -2581,7 +2598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -2598,7 +2615,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -2615,7 +2632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -2632,7 +2649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -2649,7 +2666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -2666,7 +2683,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -2683,7 +2700,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -2700,7 +2717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -2717,7 +2734,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -2734,7 +2751,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -2751,7 +2768,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
@@ -2776,18 +2793,18 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:E11"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCellId="1" sqref="A5:XFD5 A1"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>38</v>
       </c>
@@ -2800,8 +2817,11 @@
       <c r="D1" s="1" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+      <c r="E1" s="20" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -2815,7 +2835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -2829,7 +2849,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -2843,7 +2863,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -2857,7 +2877,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -2871,7 +2891,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -2885,7 +2905,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -2899,7 +2919,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -2913,7 +2933,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -2927,7 +2947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -2955,62 +2975,62 @@
       <selection activeCellId="1" sqref="A5:XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>37</v>
       </c>
@@ -3029,97 +3049,97 @@
       <selection activeCellId="1" sqref="A5:XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -3138,97 +3158,97 @@
       <selection activeCellId="1" sqref="A5:XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>27</v>
       </c>
@@ -3243,19 +3263,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="8.578125"/>
-    <col min="2" max="2" width="15.5234375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.83984375" bestFit="1" customWidth="1"/>
-    <col min="4" max="1025" width="8.578125"/>
+    <col min="1" max="1" width="8.5"/>
+    <col min="2" max="2" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.83203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>72</v>
       </c>
@@ -3266,7 +3286,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>28</v>
       </c>
@@ -3277,7 +3297,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>29</v>
       </c>
@@ -3288,7 +3308,7 @@
         <v>-15</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>30</v>
       </c>
@@ -3299,7 +3319,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>31</v>
       </c>
@@ -3310,7 +3330,7 @@
         <v>-13.24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -3321,7 +3341,7 @@
         <v>-21.2</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>33</v>
       </c>
@@ -3332,7 +3352,7 @@
         <v>-17.8</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>34</v>
       </c>
@@ -3343,7 +3363,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>35</v>
       </c>
@@ -3354,7 +3374,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>36</v>
       </c>
@@ -3365,7 +3385,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>37</v>
       </c>
@@ -3390,12 +3410,12 @@
       <selection activeCellId="1" sqref="A5:XFD5 A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1025" width="8.578125"/>
+    <col min="1" max="1025" width="8.5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>71</v>
       </c>
@@ -3406,7 +3426,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>11</v>
       </c>
@@ -3417,7 +3437,7 @@
         <v>7.2911163028008404E-4</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>12</v>
       </c>
@@ -3428,7 +3448,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -3439,7 +3459,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>14</v>
       </c>
@@ -3450,7 +3470,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>15</v>
       </c>
@@ -3461,7 +3481,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>16</v>
       </c>
@@ -3472,7 +3492,7 @@
         <v>3.6236710365453E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>17</v>
       </c>
@@ -3483,7 +3503,7 @@
         <v>6.8371245624560797E-4</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>18</v>
       </c>
@@ -3494,7 +3514,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>19</v>
       </c>
@@ -3505,7 +3525,7 @@
         <v>2.8954690291989999E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -3516,7 +3536,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>21</v>
       </c>
@@ -3527,7 +3547,7 @@
         <v>1.8041269247861399E-4</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
@@ -3538,7 +3558,7 @@
         <v>5.4114264673250803E-4</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>23</v>
       </c>
@@ -3549,7 +3569,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>24</v>
       </c>
@@ -3560,7 +3580,7 @@
         <v>1E-8</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>25</v>
       </c>
@@ -3571,7 +3591,7 @@
         <v>1.0410368882429199E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>26</v>
       </c>
@@ -3582,7 +3602,7 @@
         <v>1.1810325869610099E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>27</v>
       </c>
